--- a/LOOCV_results.xlsx
+++ b/LOOCV_results.xlsx
@@ -466,10 +466,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.987437713086814</v>
+        <v>1.987437713086808</v>
       </c>
       <c r="D2">
-        <v>1.770588235294118</v>
+        <v>1.770588235294119</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -483,7 +483,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="D3">
-        <v>2.025480439258754</v>
+        <v>2.025480439258749</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -497,7 +497,7 @@
         <v>1.88653846153846</v>
       </c>
       <c r="D4">
-        <v>2.077859778597782</v>
+        <v>2.077859778597793</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -508,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1.94227642276423</v>
+        <v>1.942276422764228</v>
       </c>
       <c r="D5">
-        <v>1.966666666666666</v>
+        <v>1.966666666666668</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -522,10 +522,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1.990322580645167</v>
+        <v>1.990322580645159</v>
       </c>
       <c r="D6">
-        <v>0.9333333333333342</v>
+        <v>0.9333333333333328</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -539,7 +539,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="D7">
-        <v>2.702916666666668</v>
+        <v>2.702916666666667</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -550,10 +550,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1.966666666666666</v>
+        <v>1.966666666666668</v>
       </c>
       <c r="D8">
-        <v>1.843333333333333</v>
+        <v>1.843333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -564,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1.990322580645167</v>
+        <v>1.990322580645159</v>
       </c>
       <c r="D9">
         <v>0.732129911555746</v>
@@ -578,10 +578,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1.975609756097564</v>
+        <v>1.975609756097562</v>
       </c>
       <c r="D10">
-        <v>1.705882352941179</v>
+        <v>1.705882352941178</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -592,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1.975609756097564</v>
+        <v>1.975609756097562</v>
       </c>
       <c r="D11">
         <v>1.583999999999997</v>
@@ -609,7 +609,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="D12">
-        <v>2.571507707129094</v>
+        <v>2.571507707129092</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -623,7 +623,7 @@
         <v>1.88653846153846</v>
       </c>
       <c r="D13">
-        <v>2.875675675675677</v>
+        <v>2.875675675675678</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -634,10 +634,10 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>1.933333333333332</v>
+        <v>1.933333333333334</v>
       </c>
       <c r="D14">
-        <v>2.145833333333337</v>
+        <v>2.145833333333334</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -676,10 +676,10 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>1.868604651162789</v>
+        <v>1.86860465116279</v>
       </c>
       <c r="D17">
-        <v>2.199999999999999</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -693,7 +693,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="D18">
-        <v>1.668059701492536</v>
+        <v>1.668059701492538</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -721,7 +721,7 @@
         <v>1.799999999999999</v>
       </c>
       <c r="D20">
-        <v>3.014516129032259</v>
+        <v>3.014516129032258</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -735,7 +735,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="D21">
-        <v>1.895214521452143</v>
+        <v>1.895214521452144</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -746,10 +746,10 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>1.933333333333332</v>
+        <v>1.933333333333335</v>
       </c>
       <c r="D22">
-        <v>1.190000000000001</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -774,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>1.818604651162789</v>
+        <v>1.81860465116279</v>
       </c>
       <c r="D24">
         <v>2.506250000000002</v>
@@ -791,7 +791,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="D25">
-        <v>1.664285714285714</v>
+        <v>1.664285714285715</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -833,7 +833,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="D28">
-        <v>1.74883720930233</v>
+        <v>1.748837209302327</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -858,10 +858,10 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>1.868604651162789</v>
+        <v>1.868604651162785</v>
       </c>
       <c r="D30">
-        <v>2.2</v>
+        <v>2.199999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -875,7 +875,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="D31">
-        <v>1.668059701492538</v>
+        <v>1.668059701492533</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -889,7 +889,7 @@
         <v>1.9</v>
       </c>
       <c r="D32">
-        <v>0.9333333333333341</v>
+        <v>0.9333333333333343</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -900,7 +900,7 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>1.800000000000004</v>
+        <v>1.800000000000002</v>
       </c>
       <c r="D33">
         <v>3.014516129032259</v>
@@ -914,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>1.899999999999998</v>
+        <v>1.899999999999997</v>
       </c>
       <c r="D34">
         <v>1.895214521452145</v>
@@ -928,10 +928,10 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>1.93333333333333</v>
+        <v>1.933333333333334</v>
       </c>
       <c r="D35">
-        <v>1.189999999999999</v>
+        <v>1.190000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -945,7 +945,7 @@
         <v>1.9</v>
       </c>
       <c r="D36">
-        <v>1.199999999999999</v>
+        <v>1.200000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -956,10 +956,10 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>1.818604651162793</v>
+        <v>1.818604651162787</v>
       </c>
       <c r="D37">
-        <v>2.506249999999995</v>
+        <v>2.506250000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -973,7 +973,7 @@
         <v>1.9</v>
       </c>
       <c r="D38">
-        <v>1.664285714285713</v>
+        <v>1.664285714285714</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -984,10 +984,10 @@
         <v>12</v>
       </c>
       <c r="C39">
-        <v>1.752272727272726</v>
+        <v>1.752272727272733</v>
       </c>
       <c r="D39">
-        <v>2.700000000000001</v>
+        <v>2.700000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1012,10 +1012,10 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>1.7</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="D41">
-        <v>0.5999999999999979</v>
+        <v>0.5999999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1068,10 +1068,10 @@
         <v>5</v>
       </c>
       <c r="C45">
-        <v>1.7</v>
+        <v>1.700000000000002</v>
       </c>
       <c r="D45">
-        <v>0.9500000000000007</v>
+        <v>0.9499999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1082,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>1.7</v>
+        <v>1.700000000000002</v>
       </c>
       <c r="D46">
         <v>1.501923076923076</v>
@@ -1099,7 +1099,7 @@
         <v>1.6</v>
       </c>
       <c r="D47">
-        <v>2.449999999999998</v>
+        <v>2.449999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1110,10 +1110,10 @@
         <v>8</v>
       </c>
       <c r="C48">
-        <v>1.7</v>
+        <v>1.700000000000002</v>
       </c>
       <c r="D48">
-        <v>0.7321428571428585</v>
+        <v>0.7321428571428577</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1124,10 +1124,10 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <v>1.7</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="D49">
-        <v>1.142857142857148</v>
+        <v>1.142857142857141</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1141,7 +1141,7 @@
         <v>1.6</v>
       </c>
       <c r="D50">
-        <v>2.199999999999998</v>
+        <v>2.200000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1155,7 +1155,7 @@
         <v>1.65</v>
       </c>
       <c r="D51">
-        <v>1.966666666666666</v>
+        <v>1.966666666666665</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1166,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>1.58095238095238</v>
+        <v>1.580952380952382</v>
       </c>
       <c r="D52">
         <v>3.149999999999999</v>
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>1.999999999999999</v>
+        <v>1.999999999999997</v>
       </c>
       <c r="D54">
         <v>1.9</v>
@@ -1208,10 +1208,10 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>1.999999999999998</v>
+        <v>1.999999999999997</v>
       </c>
       <c r="D55">
-        <v>2.15</v>
+        <v>2.149999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1236,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1.999999999999999</v>
       </c>
       <c r="D57">
         <v>1.899999999999999</v>
@@ -1250,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1.999999999999997</v>
       </c>
       <c r="D58">
         <v>0.9499999999999998</v>
@@ -1264,7 +1264,7 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <v>2.1</v>
+        <v>2.099999999999998</v>
       </c>
       <c r="D59">
         <v>1.449999999999998</v>
@@ -1278,10 +1278,10 @@
         <v>7</v>
       </c>
       <c r="C60">
-        <v>1.900000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="D60">
-        <v>2.050000000000001</v>
+        <v>2.049999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="C61">
-        <v>1.900000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="D61">
         <v>2.100000000000001</v>
@@ -1306,7 +1306,7 @@
         <v>9</v>
       </c>
       <c r="C62">
-        <v>1.999999999999999</v>
+        <v>1.999999999999997</v>
       </c>
       <c r="D62">
         <v>1.4</v>
@@ -1320,10 +1320,10 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1.999999999999997</v>
       </c>
       <c r="D63">
-        <v>1.700000000000001</v>
+        <v>1.700000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1334,7 +1334,7 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>1.999999999999998</v>
+        <v>1.999999999999997</v>
       </c>
       <c r="D64">
         <v>2.225</v>
@@ -1365,7 +1365,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="D66">
-        <v>3.599999999999993</v>
+        <v>3.599999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>1.85</v>
+        <v>1.850000000000001</v>
       </c>
       <c r="D67">
         <v>0.3000000000000007</v>
@@ -1390,10 +1390,10 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>1.700000000000001</v>
+        <v>1.700000000000002</v>
       </c>
       <c r="D68">
-        <v>2.15</v>
+        <v>2.149999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1404,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>1.7</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="D69">
         <v>2.299999999999999</v>
@@ -1418,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>1.750000000000001</v>
+        <v>1.750000000000002</v>
       </c>
       <c r="D70">
         <v>1.899999999999999</v>
@@ -1435,7 +1435,7 @@
         <v>1.9</v>
       </c>
       <c r="D71">
-        <v>0.9500000000000012</v>
+        <v>0.9499999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1449,7 +1449,7 @@
         <v>1.9</v>
       </c>
       <c r="D72">
-        <v>1.599999999999999</v>
+        <v>1.599999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1460,10 +1460,10 @@
         <v>7</v>
       </c>
       <c r="C73">
-        <v>1.700000000000001</v>
+        <v>1.700000000000002</v>
       </c>
       <c r="D73">
-        <v>2.050000000000001</v>
+        <v>2.049999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1474,7 +1474,7 @@
         <v>8</v>
       </c>
       <c r="C74">
-        <v>1.700000000000001</v>
+        <v>1.700000000000002</v>
       </c>
       <c r="D74">
         <v>2.05</v>
@@ -1505,7 +1505,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="D76">
-        <v>1.300000000000002</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1530,7 +1530,7 @@
         <v>12</v>
       </c>
       <c r="C78">
-        <v>1.750000000000001</v>
+        <v>1.750000000000002</v>
       </c>
       <c r="D78">
         <v>2.100000000000001</v>
@@ -1561,7 +1561,7 @@
         <v>1.871626180836706</v>
       </c>
       <c r="D80">
-        <v>0.9333333333333336</v>
+        <v>0.9333333333333353</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1572,10 +1572,10 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>1.852380952380948</v>
+        <v>1.852380952380952</v>
       </c>
       <c r="D81">
-        <v>1.886250509995917</v>
+        <v>1.886250509995921</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1586,10 +1586,10 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>1.851190476190473</v>
+        <v>1.851190476190476</v>
       </c>
       <c r="D82">
-        <v>2.276923076923075</v>
+        <v>2.276923076923078</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1600,10 +1600,10 @@
         <v>4</v>
       </c>
       <c r="C83">
-        <v>1.879395604395603</v>
+        <v>1.879395604395604</v>
       </c>
       <c r="D83">
-        <v>1.680769230769228</v>
+        <v>1.680769230769231</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1614,10 +1614,10 @@
         <v>5</v>
       </c>
       <c r="C84">
-        <v>1.885714285714285</v>
+        <v>1.885714285714287</v>
       </c>
       <c r="D84">
-        <v>0.9500000000000007</v>
+        <v>0.9500000000000008</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1631,7 +1631,7 @@
         <v>1.776744186046511</v>
       </c>
       <c r="D85">
-        <v>2.524428804569563</v>
+        <v>2.524428804569566</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1645,7 +1645,7 @@
         <v>1.87017543859649</v>
       </c>
       <c r="D86">
-        <v>1.831229235880398</v>
+        <v>1.831229235880399</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1656,7 +1656,7 @@
         <v>8</v>
       </c>
       <c r="C87">
-        <v>1.849999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="D87">
         <v>2.800000000000001</v>
@@ -1670,10 +1670,10 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>1.861278195488719</v>
+        <v>1.861278195488721</v>
       </c>
       <c r="D88">
-        <v>1.895238095238099</v>
+        <v>1.895238095238094</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1684,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>1.879395604395603</v>
+        <v>1.879395604395604</v>
       </c>
       <c r="D89">
         <v>1.119047619047619</v>
@@ -1701,7 +1701,7 @@
         <v>1.873076923076921</v>
       </c>
       <c r="D90">
-        <v>1.367857142857141</v>
+        <v>1.367857142857142</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1715,7 +1715,7 @@
         <v>1.871626180836706</v>
       </c>
       <c r="D91">
-        <v>1.849999999999998</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1726,10 +1726,10 @@
         <v>13</v>
       </c>
       <c r="C92">
-        <v>1.879395604395603</v>
+        <v>1.879395604395604</v>
       </c>
       <c r="D92">
-        <v>1.115384615384619</v>
+        <v>1.115384615384613</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1740,10 +1740,10 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <v>1.800000000000001</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="D93">
-        <v>0.4000000000000004</v>
+        <v>0.4000000000000008</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1757,7 +1757,7 @@
         <v>1.700000000000001</v>
       </c>
       <c r="D94">
-        <v>2.100000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1768,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>1.700000000000001</v>
+        <v>1.700000000000002</v>
       </c>
       <c r="D95">
         <v>2.6</v>
@@ -1796,10 +1796,10 @@
         <v>5</v>
       </c>
       <c r="C97">
-        <v>1.800000000000002</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="D97">
-        <v>0.9499999999999998</v>
+        <v>0.9499999999999993</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1810,10 +1810,10 @@
         <v>6</v>
       </c>
       <c r="C98">
-        <v>1.800000000000001</v>
+        <v>1.799999999999998</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>2.000000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1824,7 +1824,7 @@
         <v>7</v>
       </c>
       <c r="C99">
-        <v>1.700000000000001</v>
+        <v>1.700000000000003</v>
       </c>
       <c r="D99">
         <v>1.850000000000001</v>
@@ -1852,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>1.800000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="D101">
         <v>0.9999999999999982</v>
@@ -1866,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <v>1.800000000000001</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="D102">
         <v>1.700000000000001</v>
@@ -1880,10 +1880,10 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>1.800000000000001</v>
+        <v>1.799999999999998</v>
       </c>
       <c r="D103">
-        <v>1.599999999999999</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1894,7 +1894,7 @@
         <v>12</v>
       </c>
       <c r="C104">
-        <v>1.800000000000001</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="D104">
         <v>1.699999999999999</v>
@@ -1908,10 +1908,10 @@
         <v>13</v>
       </c>
       <c r="C105">
-        <v>1.700000000000001</v>
+        <v>1.700000000000002</v>
       </c>
       <c r="D105">
-        <v>2.299999999999999</v>
+        <v>2.300000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1922,10 +1922,10 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>1.800000000000002</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="D106">
-        <v>0.4000000000000012</v>
+        <v>0.4000000000000008</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1936,10 +1936,10 @@
         <v>2</v>
       </c>
       <c r="C107">
-        <v>1.700000000000005</v>
+        <v>1.700000000000003</v>
       </c>
       <c r="D107">
-        <v>2.100000000000008</v>
+        <v>2.100000000000007</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1950,10 +1950,10 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>1.700000000000008</v>
+        <v>1.700000000000005</v>
       </c>
       <c r="D108">
-        <v>2.600000000000002</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1964,10 +1964,10 @@
         <v>4</v>
       </c>
       <c r="C109">
-        <v>1.850000000000004</v>
+        <v>1.850000000000001</v>
       </c>
       <c r="D109">
-        <v>1.300000000000002</v>
+        <v>1.299999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1978,10 +1978,10 @@
         <v>5</v>
       </c>
       <c r="C110">
-        <v>1.800000000000009</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="D110">
-        <v>0.9499999999999986</v>
+        <v>0.9499999999999998</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1992,7 +1992,7 @@
         <v>6</v>
       </c>
       <c r="C111">
-        <v>1.800000000000001</v>
+        <v>1.799999999999998</v>
       </c>
       <c r="D111">
         <v>2.000000000000004</v>
@@ -2006,10 +2006,10 @@
         <v>7</v>
       </c>
       <c r="C112">
-        <v>1.70000000000001</v>
+        <v>1.700000000000006</v>
       </c>
       <c r="D112">
-        <v>1.85</v>
+        <v>1.850000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2020,10 +2020,10 @@
         <v>8</v>
       </c>
       <c r="C113">
-        <v>1.700000000000005</v>
+        <v>1.700000000000003</v>
       </c>
       <c r="D113">
-        <v>2.900000000000007</v>
+        <v>2.899999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2034,10 +2034,10 @@
         <v>9</v>
       </c>
       <c r="C114">
-        <v>1.800000000000006</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="D114">
-        <v>1.000000000000004</v>
+        <v>0.9999999999999911</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2048,10 +2048,10 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>1.800000000000002</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="D115">
-        <v>1.700000000000002</v>
+        <v>1.700000000000003</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2062,7 +2062,7 @@
         <v>11</v>
       </c>
       <c r="C116">
-        <v>1.800000000000001</v>
+        <v>1.799999999999998</v>
       </c>
       <c r="D116">
         <v>1.600000000000001</v>
@@ -2076,10 +2076,10 @@
         <v>12</v>
       </c>
       <c r="C117">
-        <v>1.800000000000002</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="D117">
-        <v>1.699999999999996</v>
+        <v>1.699999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2090,7 +2090,7 @@
         <v>13</v>
       </c>
       <c r="C118">
-        <v>1.700000000000008</v>
+        <v>1.700000000000005</v>
       </c>
       <c r="D118">
         <v>2.299999999999999</v>
@@ -2104,10 +2104,10 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>2.017859404686495</v>
+        <v>2.017859404686516</v>
       </c>
       <c r="D119">
-        <v>1.836956937042031</v>
+        <v>1.836956937042035</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2118,10 +2118,10 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>2.156114282025613</v>
+        <v>2.156114282025611</v>
       </c>
       <c r="D120">
-        <v>1.525574015307073</v>
+        <v>1.525574015307074</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2132,10 +2132,10 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>2.017859404686495</v>
+        <v>2.017859404686516</v>
       </c>
       <c r="D121">
-        <v>2.36152204836415</v>
+        <v>2.361522048364153</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2146,10 +2146,10 @@
         <v>4</v>
       </c>
       <c r="C122">
-        <v>2.071321961620471</v>
+        <v>2.071321961620465</v>
       </c>
       <c r="D122">
-        <v>1.702423712034701</v>
+        <v>1.702423712034693</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2160,10 +2160,10 @@
         <v>5</v>
       </c>
       <c r="C123">
-        <v>1.867855282909395</v>
+        <v>1.8678552829094</v>
       </c>
       <c r="D123">
-        <v>2.82967359050445</v>
+        <v>2.829673590504447</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2174,10 +2174,10 @@
         <v>6</v>
       </c>
       <c r="C124">
-        <v>2.044590683153483</v>
+        <v>2.044590683153491</v>
       </c>
       <c r="D124">
-        <v>1.383168316831679</v>
+        <v>1.383168316831672</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2188,10 +2188,10 @@
         <v>7</v>
       </c>
       <c r="C125">
-        <v>2.156114282025613</v>
+        <v>2.156114282025611</v>
       </c>
       <c r="D125">
-        <v>0.9818181818181824</v>
+        <v>0.9818181818181877</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2205,7 +2205,7 @@
         <v>2.00080029513324</v>
       </c>
       <c r="D126">
-        <v>2.017859404686495</v>
+        <v>2.017859404686516</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2216,10 +2216,10 @@
         <v>9</v>
       </c>
       <c r="C127">
-        <v>1.974069016666252</v>
+        <v>1.974069016666265</v>
       </c>
       <c r="D127">
-        <v>2.071321961620471</v>
+        <v>2.071321961620465</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2230,10 +2230,10 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>1.834527069425047</v>
+        <v>1.834527069425048</v>
       </c>
       <c r="D128">
-        <v>2.820240480961917</v>
+        <v>2.820240480961926</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2244,10 +2244,10 @@
         <v>11</v>
       </c>
       <c r="C129">
-        <v>1.930278628646008</v>
+        <v>1.930278628646015</v>
       </c>
       <c r="D129">
-        <v>3.171781500174207</v>
+        <v>3.171781500173832</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2258,10 +2258,10 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>2.053333333333333</v>
+        <v>2.053333333333331</v>
       </c>
       <c r="D130">
-        <v>1.735463225912664</v>
+        <v>1.735463225912663</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2275,7 +2275,7 @@
         <v>2.079047619047619</v>
       </c>
       <c r="D131">
-        <v>2.024340886418696</v>
+        <v>2.024340886418694</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2286,10 +2286,10 @@
         <v>3</v>
       </c>
       <c r="C132">
-        <v>2.053333333333333</v>
+        <v>2.053333333333331</v>
       </c>
       <c r="D132">
-        <v>2.30714285714286</v>
+        <v>2.307142857142857</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2300,10 +2300,10 @@
         <v>4</v>
       </c>
       <c r="C133">
-        <v>2.104761904761906</v>
+        <v>2.104761904761908</v>
       </c>
       <c r="D133">
-        <v>1.733962016781541</v>
+        <v>1.733962016781535</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2314,10 +2314,10 @@
         <v>5</v>
       </c>
       <c r="C134">
-        <v>2.038837109876014</v>
+        <v>2.038837109876012</v>
       </c>
       <c r="D134">
-        <v>3.000000000000007</v>
+        <v>3.000000000000021</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2331,7 +2331,7 @@
         <v>2.079047619047619</v>
       </c>
       <c r="D135">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999973</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2342,7 +2342,7 @@
         <v>7</v>
       </c>
       <c r="C136">
-        <v>2.108791208791209</v>
+        <v>2.10879120879121</v>
       </c>
       <c r="D136">
         <v>0.5333333333333314</v>
@@ -2359,7 +2359,7 @@
         <v>2.079047619047619</v>
       </c>
       <c r="D137">
-        <v>1.550000000000016</v>
+        <v>1.550000000000009</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2370,7 +2370,7 @@
         <v>9</v>
       </c>
       <c r="C138">
-        <v>2.038837109876014</v>
+        <v>2.038837109876012</v>
       </c>
       <c r="D138">
         <v>2.448181818181818</v>
@@ -2384,10 +2384,10 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>1.93248847926268</v>
+        <v>1.932488479262681</v>
       </c>
       <c r="D139">
-        <v>2.699999999999999</v>
+        <v>2.700000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2398,10 +2398,10 @@
         <v>11</v>
       </c>
       <c r="C140">
-        <v>2.024340886418696</v>
+        <v>2.024340886418694</v>
       </c>
       <c r="D140">
-        <v>2.406514864010124</v>
+        <v>2.406514864010127</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2412,10 +2412,10 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>2.05333333333334</v>
+        <v>2.053333333333333</v>
       </c>
       <c r="D141">
-        <v>1.735463225912663</v>
+        <v>1.735463225912661</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2426,10 +2426,10 @@
         <v>2</v>
       </c>
       <c r="C142">
-        <v>2.079047619047622</v>
+        <v>2.079047619047618</v>
       </c>
       <c r="D142">
-        <v>2.024340886418695</v>
+        <v>2.024340886418711</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2440,10 +2440,10 @@
         <v>3</v>
       </c>
       <c r="C143">
-        <v>2.05333333333334</v>
+        <v>2.053333333333333</v>
       </c>
       <c r="D143">
-        <v>2.307142857142853</v>
+        <v>2.307142857142836</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2454,10 +2454,10 @@
         <v>4</v>
       </c>
       <c r="C144">
-        <v>2.104761904761904</v>
+        <v>2.104761904761903</v>
       </c>
       <c r="D144">
-        <v>1.733962016781543</v>
+        <v>1.733962016781539</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2468,10 +2468,10 @@
         <v>5</v>
       </c>
       <c r="C145">
-        <v>2.038837109876018</v>
+        <v>2.038837109876022</v>
       </c>
       <c r="D145">
-        <v>3.000000000000028</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2482,10 +2482,10 @@
         <v>6</v>
       </c>
       <c r="C146">
-        <v>2.079047619047622</v>
+        <v>2.079047619047618</v>
       </c>
       <c r="D146">
-        <v>1.00000000000001</v>
+        <v>0.999999999999992</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2496,10 +2496,10 @@
         <v>7</v>
       </c>
       <c r="C147">
-        <v>2.108791208791209</v>
+        <v>2.108791208791208</v>
       </c>
       <c r="D147">
-        <v>0.5333333333333385</v>
+        <v>0.5333333333333208</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2510,10 +2510,10 @@
         <v>8</v>
       </c>
       <c r="C148">
-        <v>2.079047619047622</v>
+        <v>2.079047619047618</v>
       </c>
       <c r="D148">
-        <v>1.54999999999998</v>
+        <v>1.550000000000066</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2524,10 +2524,10 @@
         <v>9</v>
       </c>
       <c r="C149">
-        <v>2.038837109876018</v>
+        <v>2.038837109876022</v>
       </c>
       <c r="D149">
-        <v>2.44818181818182</v>
+        <v>2.448181818181824</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2538,10 +2538,10 @@
         <v>10</v>
       </c>
       <c r="C150">
-        <v>1.93248847926285</v>
+        <v>1.932488479262708</v>
       </c>
       <c r="D150">
-        <v>2.699999999999942</v>
+        <v>2.700000000000006</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2552,10 +2552,10 @@
         <v>11</v>
       </c>
       <c r="C151">
-        <v>2.024340886418695</v>
+        <v>2.024340886418711</v>
       </c>
       <c r="D151">
-        <v>2.406514864010123</v>
+        <v>2.406514864010115</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2566,10 +2566,10 @@
         <v>1</v>
       </c>
       <c r="C152">
-        <v>2.185365853658539</v>
+        <v>2.185365853658542</v>
       </c>
       <c r="D152">
-        <v>1.200000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2580,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="C153">
-        <v>2.114999999999999</v>
+        <v>2.114999999999998</v>
       </c>
       <c r="D153">
         <v>2.399999999999999</v>
@@ -2597,7 +2597,7 @@
         <v>2.129999999999997</v>
       </c>
       <c r="D154">
-        <v>2.5</v>
+        <v>2.499999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2608,7 +2608,7 @@
         <v>4</v>
       </c>
       <c r="C155">
-        <v>2.100000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="D155">
         <v>3.05</v>
@@ -2625,7 +2625,7 @@
         <v>2.349999999999999</v>
       </c>
       <c r="D156">
-        <v>1.5</v>
+        <v>1.499999999999998</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2636,10 +2636,10 @@
         <v>6</v>
       </c>
       <c r="C157">
-        <v>2.18268292682927</v>
+        <v>2.182682926829272</v>
       </c>
       <c r="D157">
-        <v>1.8775</v>
+        <v>1.877499999999998</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2650,10 +2650,10 @@
         <v>7</v>
       </c>
       <c r="C158">
-        <v>2.19268292682927</v>
+        <v>2.192682926829272</v>
       </c>
       <c r="D158">
-        <v>0.9818181818181824</v>
+        <v>0.9818181818181877</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2664,7 +2664,7 @@
         <v>8</v>
       </c>
       <c r="C159">
-        <v>2.242682926829269</v>
+        <v>2.242682926829271</v>
       </c>
       <c r="D159">
         <v>1.3</v>
@@ -2678,10 +2678,10 @@
         <v>9</v>
       </c>
       <c r="C160">
-        <v>2.154999999999998</v>
+        <v>2.154999999999999</v>
       </c>
       <c r="D160">
-        <v>2.8</v>
+        <v>2.799999999999998</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2692,10 +2692,10 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>2.154999999999998</v>
+        <v>2.154999999999999</v>
       </c>
       <c r="D161">
-        <v>2.908287292817683</v>
+        <v>2.908287292817677</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2706,10 +2706,10 @@
         <v>11</v>
       </c>
       <c r="C162">
-        <v>2.100000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="D162">
-        <v>3.619512195121952</v>
+        <v>3.619512195121956</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>3.099999999999995</v>
+        <v>3.100000000000009</v>
       </c>
       <c r="D163">
         <v>1.2</v>
@@ -2762,10 +2762,10 @@
         <v>4</v>
       </c>
       <c r="C166">
-        <v>2.800000000000002</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="D166">
-        <v>4.5</v>
+        <v>4.499999999999989</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2776,10 +2776,10 @@
         <v>5</v>
       </c>
       <c r="C167">
-        <v>2.949999999999998</v>
+        <v>2.950000000000005</v>
       </c>
       <c r="D167">
-        <v>3.000000000000007</v>
+        <v>3.000000000000021</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2790,10 +2790,10 @@
         <v>6</v>
       </c>
       <c r="C168">
-        <v>3.399999999999999</v>
+        <v>3.400000000000001</v>
       </c>
       <c r="D168">
-        <v>1.475000000000001</v>
+        <v>1.474999999999998</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2804,10 +2804,10 @@
         <v>7</v>
       </c>
       <c r="C169">
-        <v>3.249999999999997</v>
+        <v>3.250000000000004</v>
       </c>
       <c r="D169">
-        <v>1.899999999999999</v>
+        <v>1.900000000000002</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2818,10 +2818,10 @@
         <v>8</v>
       </c>
       <c r="C170">
-        <v>3.249999999999997</v>
+        <v>3.250000000000004</v>
       </c>
       <c r="D170">
-        <v>2.199999999999998</v>
+        <v>2.200000000000005</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2832,10 +2832,10 @@
         <v>9</v>
       </c>
       <c r="C171">
-        <v>2.800000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="D171">
-        <v>4.300000000000002</v>
+        <v>4.299999999999998</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2849,7 +2849,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="D172">
-        <v>5.600000000000009</v>
+        <v>5.600000000000019</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2860,7 +2860,7 @@
         <v>11</v>
       </c>
       <c r="C173">
-        <v>2.799999999999999</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="D173">
         <v>3.999999999999995</v>
@@ -2874,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="C174">
-        <v>2.799999999999994</v>
+        <v>2.799999999999993</v>
       </c>
       <c r="D174">
         <v>1.2</v>
@@ -2888,10 +2888,10 @@
         <v>2</v>
       </c>
       <c r="C175">
-        <v>2.650000000000001</v>
+        <v>2.65</v>
       </c>
       <c r="D175">
-        <v>5.000000000000012</v>
+        <v>4.999999999999983</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2902,7 +2902,7 @@
         <v>3</v>
       </c>
       <c r="C176">
-        <v>2.799999999999994</v>
+        <v>2.799999999999993</v>
       </c>
       <c r="D176">
         <v>2.499999999999999</v>
@@ -2916,10 +2916,10 @@
         <v>4</v>
       </c>
       <c r="C177">
-        <v>2.600000000000003</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="D177">
-        <v>4.5</v>
+        <v>4.499999999999989</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2947,7 +2947,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="D179">
-        <v>1.925000000000003</v>
+        <v>1.925000000000002</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2961,7 +2961,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="D180">
-        <v>1.899999999999842</v>
+        <v>1.900000000000002</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2986,10 +2986,10 @@
         <v>9</v>
       </c>
       <c r="C182">
-        <v>2.650000000000001</v>
+        <v>2.65</v>
       </c>
       <c r="D182">
-        <v>3.100000000000018</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3000,10 +3000,10 @@
         <v>10</v>
       </c>
       <c r="C183">
-        <v>2.650000000000001</v>
+        <v>2.65</v>
       </c>
       <c r="D183">
-        <v>4.399999999999974</v>
+        <v>4.399999999999995</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3014,10 +3014,10 @@
         <v>11</v>
       </c>
       <c r="C184">
-        <v>2.600000000000003</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="D184">
-        <v>4.000000000000003</v>
+        <v>3.999999999999987</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>2.020000000000008</v>
+        <v>2.020000000000007</v>
       </c>
       <c r="D185">
         <v>1.262333333333335</v>
@@ -3042,10 +3042,10 @@
         <v>2</v>
       </c>
       <c r="C186">
-        <v>2.025333333333343</v>
+        <v>2.025333333333337</v>
       </c>
       <c r="D186">
-        <v>1.564999999999996</v>
+        <v>1.564999999999994</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3056,10 +3056,10 @@
         <v>3</v>
       </c>
       <c r="C187">
-        <v>1.995121951219513</v>
+        <v>1.995121951219524</v>
       </c>
       <c r="D187">
-        <v>2.232000000000013</v>
+        <v>2.232</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3070,10 +3070,10 @@
         <v>4</v>
       </c>
       <c r="C188">
-        <v>2.103870967741939</v>
+        <v>2.103870967741937</v>
       </c>
       <c r="D188">
-        <v>1.583281092936124</v>
+        <v>1.583281092936121</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3084,10 +3084,10 @@
         <v>5</v>
       </c>
       <c r="C189">
-        <v>2.007560975609761</v>
+        <v>2.007560975609766</v>
       </c>
       <c r="D189">
-        <v>2.105543237250558</v>
+        <v>2.105543237250567</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3098,10 +3098,10 @@
         <v>6</v>
       </c>
       <c r="C190">
-        <v>2.025333333333343</v>
+        <v>2.025333333333337</v>
       </c>
       <c r="D190">
-        <v>1.99</v>
+        <v>1.989999999999991</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3112,10 +3112,10 @@
         <v>7</v>
       </c>
       <c r="C191">
-        <v>1.992560975609757</v>
+        <v>1.992560975609758</v>
       </c>
       <c r="D191">
-        <v>3.387272727272725</v>
+        <v>3.387272727272723</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3126,10 +3126,10 @@
         <v>8</v>
       </c>
       <c r="C192">
-        <v>2.025333333333343</v>
+        <v>2.025333333333337</v>
       </c>
       <c r="D192">
-        <v>1.995121951219513</v>
+        <v>1.995121951219524</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3140,10 +3140,10 @@
         <v>9</v>
       </c>
       <c r="C193">
-        <v>2.007560975609761</v>
+        <v>2.007560975609766</v>
       </c>
       <c r="D193">
-        <v>2.346563192904658</v>
+        <v>2.346563192904669</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3154,10 +3154,10 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>2.012894308943096</v>
+        <v>2.012894308943095</v>
       </c>
       <c r="D194">
-        <v>2.020000000000008</v>
+        <v>2.020000000000007</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3168,10 +3168,10 @@
         <v>11</v>
       </c>
       <c r="C195">
-        <v>2.020000000000008</v>
+        <v>2.020000000000007</v>
       </c>
       <c r="D195">
-        <v>2.116999999999999</v>
+        <v>2.116999999999998</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3182,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="C196">
-        <v>1.899999999999999</v>
+        <v>1.899999999999998</v>
       </c>
       <c r="D196">
         <v>1.199999999999998</v>
@@ -3196,10 +3196,10 @@
         <v>2</v>
       </c>
       <c r="C197">
-        <v>1.949999999999992</v>
+        <v>1.949999999999982</v>
       </c>
       <c r="D197">
-        <v>1.800000000000001</v>
+        <v>1.800000000000009</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3210,10 +3210,10 @@
         <v>3</v>
       </c>
       <c r="C198">
-        <v>1.800000000000001</v>
+        <v>1.800000000000009</v>
       </c>
       <c r="D198">
-        <v>2.500000000000002</v>
+        <v>2.500000000000005</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3224,10 +3224,10 @@
         <v>4</v>
       </c>
       <c r="C199">
-        <v>2.000000000000009</v>
+        <v>2.000000000000005</v>
       </c>
       <c r="D199">
-        <v>1.399999999999999</v>
+        <v>1.400000000000019</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3238,7 +3238,7 @@
         <v>5</v>
       </c>
       <c r="C200">
-        <v>1.949999999999992</v>
+        <v>1.949999999999982</v>
       </c>
       <c r="D200">
         <v>1.700000000000003</v>
@@ -3252,10 +3252,10 @@
         <v>6</v>
       </c>
       <c r="C201">
-        <v>1.899999999999992</v>
+        <v>1.899999999999987</v>
       </c>
       <c r="D201">
-        <v>1.899999999999999</v>
+        <v>1.899999999999998</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3266,10 +3266,10 @@
         <v>7</v>
       </c>
       <c r="C202">
-        <v>1.799999999999998</v>
+        <v>1.800000000000006</v>
       </c>
       <c r="D202">
-        <v>3.700000000000003</v>
+        <v>3.700000000000006</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3280,10 +3280,10 @@
         <v>8</v>
       </c>
       <c r="C203">
-        <v>1.949999999999992</v>
+        <v>1.950000000000002</v>
       </c>
       <c r="D203">
-        <v>1.700000000000006</v>
+        <v>1.700000000000014</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3294,10 +3294,10 @@
         <v>9</v>
       </c>
       <c r="C204">
-        <v>1.85</v>
+        <v>1.850000000000003</v>
       </c>
       <c r="D204">
-        <v>2.699999999999998</v>
+        <v>2.699999999999995</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3308,10 +3308,10 @@
         <v>10</v>
       </c>
       <c r="C205">
-        <v>1.999999999999996</v>
+        <v>1.999999999999985</v>
       </c>
       <c r="D205">
-        <v>0.8000000000000078</v>
+        <v>0.7999999999999972</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3322,10 +3322,10 @@
         <v>11</v>
       </c>
       <c r="C206">
-        <v>1.799999999999994</v>
+        <v>1.800000000000002</v>
       </c>
       <c r="D206">
-        <v>2.550000000000008</v>
+        <v>2.549999999999994</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3336,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="C207">
-        <v>1.899999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="D207">
-        <v>1.19999999999999</v>
+        <v>1.199999999999998</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3350,10 +3350,10 @@
         <v>2</v>
       </c>
       <c r="C208">
-        <v>1.949999999999996</v>
+        <v>1.950000000000024</v>
       </c>
       <c r="D208">
-        <v>1.800000000000004</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3364,10 +3364,10 @@
         <v>3</v>
       </c>
       <c r="C209">
-        <v>1.800000000000004</v>
+        <v>1.8</v>
       </c>
       <c r="D209">
-        <v>2.500000000000002</v>
+        <v>2.499999999999963</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3378,10 +3378,10 @@
         <v>4</v>
       </c>
       <c r="C210">
-        <v>2.000000000000105</v>
+        <v>2.000000000000066</v>
       </c>
       <c r="D210">
-        <v>1.399999999999997</v>
+        <v>1.399999999999991</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3392,10 +3392,10 @@
         <v>5</v>
       </c>
       <c r="C211">
-        <v>1.949999999999996</v>
+        <v>1.950000000000024</v>
       </c>
       <c r="D211">
-        <v>1.70000000000006</v>
+        <v>1.700000000000131</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3406,10 +3406,10 @@
         <v>6</v>
       </c>
       <c r="C212">
-        <v>1.899999999999999</v>
+        <v>1.900000000000024</v>
       </c>
       <c r="D212">
-        <v>1.899999999999998</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3420,10 +3420,10 @@
         <v>7</v>
       </c>
       <c r="C213">
-        <v>1.799999999999999</v>
+        <v>1.79999999999999</v>
       </c>
       <c r="D213">
-        <v>3.700000000000184</v>
+        <v>3.699999999999985</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3434,10 +3434,10 @@
         <v>8</v>
       </c>
       <c r="C214">
-        <v>1.950000000000051</v>
+        <v>1.950000000000024</v>
       </c>
       <c r="D214">
-        <v>1.700000000000014</v>
+        <v>1.699999999999992</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3448,10 +3448,10 @@
         <v>9</v>
       </c>
       <c r="C215">
-        <v>1.850000000000001</v>
+        <v>1.85</v>
       </c>
       <c r="D215">
-        <v>2.700000000000021</v>
+        <v>2.700000000000003</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3462,10 +3462,10 @@
         <v>10</v>
       </c>
       <c r="C216">
-        <v>2.00000000000005</v>
+        <v>2.000000000000057</v>
       </c>
       <c r="D216">
-        <v>0.7999999999999865</v>
+        <v>0.8000000000000149</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3476,10 +3476,10 @@
         <v>11</v>
       </c>
       <c r="C217">
-        <v>1.799999999999994</v>
+        <v>1.79999999999998</v>
       </c>
       <c r="D217">
-        <v>2.54999999999982</v>
+        <v>2.550000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3511,10 +3511,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.94227642276423</v>
+        <v>1.942276422764228</v>
       </c>
       <c r="C2">
-        <v>1.966666666666666</v>
+        <v>1.966666666666668</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3536,7 +3536,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="C4">
-        <v>1.74883720930233</v>
+        <v>1.748837209302327</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3547,7 +3547,7 @@
         <v>1.65</v>
       </c>
       <c r="C5">
-        <v>1.966666666666666</v>
+        <v>1.966666666666665</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3555,10 +3555,10 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1.999999999999998</v>
+        <v>1.999999999999997</v>
       </c>
       <c r="C6">
-        <v>2.050000000000001</v>
+        <v>2.049999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3566,7 +3566,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.750000000000001</v>
+        <v>1.750000000000002</v>
       </c>
       <c r="C7">
         <v>1.899999999999999</v>
@@ -3580,7 +3580,7 @@
         <v>1.871626180836706</v>
       </c>
       <c r="C8">
-        <v>1.831229235880398</v>
+        <v>1.831229235880399</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3588,7 +3588,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1.800000000000001</v>
+        <v>1.799999999999998</v>
       </c>
       <c r="C9">
         <v>1.700000000000001</v>
@@ -3599,10 +3599,10 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1.800000000000001</v>
+        <v>1.799999999999998</v>
       </c>
       <c r="C10">
-        <v>1.700000000000002</v>
+        <v>1.700000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3610,10 +3610,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2.017859404686495</v>
+        <v>2.017859404686516</v>
       </c>
       <c r="C11">
-        <v>2.017859404686495</v>
+        <v>2.017859404686516</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3621,10 +3621,10 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>2.053333333333333</v>
+        <v>2.053333333333331</v>
       </c>
       <c r="C12">
-        <v>2.024340886418696</v>
+        <v>2.024340886418694</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3632,10 +3632,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>2.05333333333334</v>
+        <v>2.053333333333333</v>
       </c>
       <c r="C13">
-        <v>2.024340886418695</v>
+        <v>2.024340886418711</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3643,7 +3643,7 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>2.154999999999998</v>
+        <v>2.154999999999999</v>
       </c>
       <c r="C14">
         <v>2.399999999999999</v>
@@ -3654,10 +3654,10 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>2.949999999999998</v>
+        <v>2.950000000000005</v>
       </c>
       <c r="C15">
-        <v>3.000000000000007</v>
+        <v>3.000000000000021</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3676,10 +3676,10 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>2.020000000000008</v>
+        <v>2.020000000000007</v>
       </c>
       <c r="C17">
-        <v>2.020000000000008</v>
+        <v>2.020000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3687,10 +3687,10 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1.899999999999999</v>
+        <v>1.899999999999998</v>
       </c>
       <c r="C18">
-        <v>1.800000000000001</v>
+        <v>1.800000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3698,10 +3698,10 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>1.899999999999999</v>
+        <v>1.900000000000024</v>
       </c>
       <c r="C19">
-        <v>1.800000000000004</v>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
